--- a/data/pca/factorExposure/factorExposure_2018-05-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01391440131044749</v>
+        <v>-0.02160372404546054</v>
       </c>
       <c r="C2">
-        <v>0.02695234331193377</v>
+        <v>0.01716558101440797</v>
       </c>
       <c r="D2">
-        <v>-0.002175760618660841</v>
+        <v>-0.02373503357458452</v>
       </c>
       <c r="E2">
-        <v>-0.02163870307760135</v>
+        <v>-0.01303730952488099</v>
       </c>
       <c r="F2">
-        <v>-0.1116730287279804</v>
+        <v>0.01033455100823649</v>
       </c>
       <c r="G2">
-        <v>-0.07007092182094558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05226536850029886</v>
+      </c>
+      <c r="H2">
+        <v>0.04736790990948356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09005692537864424</v>
+        <v>-0.08831191171491307</v>
       </c>
       <c r="C3">
-        <v>0.01452058445880477</v>
+        <v>-0.01601579572848496</v>
       </c>
       <c r="D3">
-        <v>-0.0528473407131573</v>
+        <v>-0.04662607429807299</v>
       </c>
       <c r="E3">
-        <v>-0.09054179706943151</v>
+        <v>-0.005449878606037021</v>
       </c>
       <c r="F3">
-        <v>-0.4020699366269233</v>
+        <v>0.0100939089319331</v>
       </c>
       <c r="G3">
-        <v>-0.2168791168369336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1840086473109022</v>
+      </c>
+      <c r="H3">
+        <v>0.1490991254741121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03986856481553576</v>
+        <v>-0.05022289930285392</v>
       </c>
       <c r="C4">
-        <v>-0.0006064242912560964</v>
+        <v>0.001587453537112862</v>
       </c>
       <c r="D4">
-        <v>0.01275767443268083</v>
+        <v>-0.05150022275239109</v>
       </c>
       <c r="E4">
-        <v>0.04452641138435973</v>
+        <v>0.02234442674276283</v>
       </c>
       <c r="F4">
-        <v>-0.0814097049954549</v>
+        <v>0.05294189540205505</v>
       </c>
       <c r="G4">
-        <v>-0.05004841195271201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03802116520849941</v>
+      </c>
+      <c r="H4">
+        <v>0.05564972476998151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02862164956812638</v>
+        <v>-0.0305282599663988</v>
       </c>
       <c r="C6">
-        <v>0.01197337929897942</v>
+        <v>-0.0008809537579788102</v>
       </c>
       <c r="D6">
-        <v>-0.002948307457912738</v>
+        <v>-0.05635385892575889</v>
       </c>
       <c r="E6">
-        <v>0.02058775985321303</v>
+        <v>0.005851087001512437</v>
       </c>
       <c r="F6">
-        <v>-0.01538783217635729</v>
+        <v>0.03177004181266033</v>
       </c>
       <c r="G6">
-        <v>0.007290626480405077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01192305829552224</v>
+      </c>
+      <c r="H6">
+        <v>0.06069163714069948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01866979496926099</v>
+        <v>-0.02392176790213662</v>
       </c>
       <c r="C7">
-        <v>0.007597092239398865</v>
+        <v>0.0006870625380676585</v>
       </c>
       <c r="D7">
-        <v>-0.013566626465483</v>
+        <v>-0.02910344352366756</v>
       </c>
       <c r="E7">
-        <v>0.02225338792678049</v>
+        <v>0.04403703813002859</v>
       </c>
       <c r="F7">
-        <v>-0.04926085065075357</v>
+        <v>0.00788133672404971</v>
       </c>
       <c r="G7">
-        <v>-0.06658334824535592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02212635538588896</v>
+      </c>
+      <c r="H7">
+        <v>0.03963428488468627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01468483437354108</v>
+        <v>-0.006034738797112561</v>
       </c>
       <c r="C8">
-        <v>0.01010908403227711</v>
+        <v>-0.002073468371911767</v>
       </c>
       <c r="D8">
-        <v>-0.004455542049583699</v>
+        <v>-0.01051334460128377</v>
       </c>
       <c r="E8">
-        <v>0.0294599170663741</v>
+        <v>0.007779587154210672</v>
       </c>
       <c r="F8">
-        <v>-0.09656361552392601</v>
+        <v>0.02095063129050595</v>
       </c>
       <c r="G8">
-        <v>-0.05763110159837467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04504088865703125</v>
+      </c>
+      <c r="H8">
+        <v>0.04032720050140634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03243432648174144</v>
+        <v>-0.03935474086691573</v>
       </c>
       <c r="C9">
-        <v>0.008969379039346184</v>
+        <v>-0.001265136662585942</v>
       </c>
       <c r="D9">
-        <v>0.002749982474693069</v>
+        <v>-0.0382642187298399</v>
       </c>
       <c r="E9">
-        <v>0.03305526439867726</v>
+        <v>0.01140068205968512</v>
       </c>
       <c r="F9">
-        <v>-0.09381148911367702</v>
+        <v>0.02954958754011919</v>
       </c>
       <c r="G9">
-        <v>-0.05444795307286545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04729815877317949</v>
+      </c>
+      <c r="H9">
+        <v>0.05445460062613069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04020642429045471</v>
+        <v>-0.09264837622461748</v>
       </c>
       <c r="C10">
-        <v>-0.08364137035363152</v>
+        <v>-0.0023467990621676</v>
       </c>
       <c r="D10">
-        <v>0.06346587207071853</v>
+        <v>0.1725250603073188</v>
       </c>
       <c r="E10">
-        <v>-0.1211514851973717</v>
+        <v>-0.003838492462774578</v>
       </c>
       <c r="F10">
-        <v>-0.04595694469526614</v>
+        <v>-0.03314890546584602</v>
       </c>
       <c r="G10">
-        <v>0.00493772740960686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03334231011568989</v>
+      </c>
+      <c r="H10">
+        <v>0.006521675814050336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03134446661880325</v>
+        <v>-0.02649997159224102</v>
       </c>
       <c r="C11">
-        <v>0.02984617715153643</v>
+        <v>-0.01262203274908104</v>
       </c>
       <c r="D11">
-        <v>-0.0128645441576368</v>
+        <v>-0.04450730947408418</v>
       </c>
       <c r="E11">
-        <v>0.02338912370680224</v>
+        <v>-0.0001345132300966763</v>
       </c>
       <c r="F11">
-        <v>-0.04508656469519616</v>
+        <v>0.01440015936947257</v>
       </c>
       <c r="G11">
-        <v>-0.02479200965032243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02779533533030115</v>
+      </c>
+      <c r="H11">
+        <v>0.04990123956832195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03916110946254653</v>
+        <v>-0.03014397810211791</v>
       </c>
       <c r="C12">
-        <v>0.02810645070837573</v>
+        <v>-0.008889923418628992</v>
       </c>
       <c r="D12">
-        <v>-0.005638965019854474</v>
+        <v>-0.04312609995660357</v>
       </c>
       <c r="E12">
-        <v>0.03447956150233167</v>
+        <v>0.009174972477334115</v>
       </c>
       <c r="F12">
-        <v>-0.02768202042405898</v>
+        <v>0.01660699347261708</v>
       </c>
       <c r="G12">
-        <v>-0.01069289647561084</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.009135940405046892</v>
+      </c>
+      <c r="H12">
+        <v>0.02366121198341896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01378053646256397</v>
+        <v>-0.03118906619479922</v>
       </c>
       <c r="C13">
-        <v>0.01880104532066008</v>
+        <v>0.01223101935158388</v>
       </c>
       <c r="D13">
-        <v>0.009701566047978883</v>
+        <v>-0.01441240052652542</v>
       </c>
       <c r="E13">
-        <v>-0.007190976253633293</v>
+        <v>-0.008796335875353266</v>
       </c>
       <c r="F13">
-        <v>-0.08070587630892234</v>
+        <v>0.02847675828319044</v>
       </c>
       <c r="G13">
-        <v>-0.04642967244885537</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0623758163998333</v>
+      </c>
+      <c r="H13">
+        <v>0.07220608901044247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01430296014018198</v>
+        <v>-0.01920965017547861</v>
       </c>
       <c r="C14">
-        <v>-0.0007260700026348261</v>
+        <v>0.0001317516218335073</v>
       </c>
       <c r="D14">
-        <v>0.00338794331581236</v>
+        <v>-0.009933649398042322</v>
       </c>
       <c r="E14">
-        <v>0.02834496425390382</v>
+        <v>0.01478279856351056</v>
       </c>
       <c r="F14">
-        <v>-0.06048772181246913</v>
+        <v>0.01931033213818349</v>
       </c>
       <c r="G14">
-        <v>-0.05665175200755666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04105902880602982</v>
+      </c>
+      <c r="H14">
+        <v>0.01156933178688411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02624686888723737</v>
+        <v>-0.02619973042521355</v>
       </c>
       <c r="C16">
-        <v>0.03077318384065115</v>
+        <v>-0.01168966215841309</v>
       </c>
       <c r="D16">
-        <v>-0.006823205005660265</v>
+        <v>-0.03644434428924826</v>
       </c>
       <c r="E16">
-        <v>0.02049914317398238</v>
+        <v>0.003697921443522542</v>
       </c>
       <c r="F16">
-        <v>-0.0497060168401761</v>
+        <v>0.01801284001906493</v>
       </c>
       <c r="G16">
-        <v>-0.02469911310080045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02457597718152387</v>
+      </c>
+      <c r="H16">
+        <v>0.03825869633439187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03021132004917198</v>
+        <v>-0.03605256617112383</v>
       </c>
       <c r="C19">
-        <v>0.0238860782217293</v>
+        <v>-0.001046047167928789</v>
       </c>
       <c r="D19">
-        <v>-0.007370474570884224</v>
+        <v>-0.02848312717397145</v>
       </c>
       <c r="E19">
-        <v>0.01682616108497338</v>
+        <v>0.006891118502581871</v>
       </c>
       <c r="F19">
-        <v>-0.1028110477272453</v>
+        <v>0.03062075532255623</v>
       </c>
       <c r="G19">
-        <v>-0.0726218646701723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06203098466351917</v>
+      </c>
+      <c r="H19">
+        <v>0.06247050450982031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003686205899618705</v>
+        <v>-0.01350553625267117</v>
       </c>
       <c r="C20">
-        <v>0.003810694543492562</v>
+        <v>0.004189405535866772</v>
       </c>
       <c r="D20">
-        <v>0.002186690185477341</v>
+        <v>-0.01810067948091208</v>
       </c>
       <c r="E20">
-        <v>0.0186225330535579</v>
+        <v>0.007129637101304339</v>
       </c>
       <c r="F20">
-        <v>-0.0762620342495611</v>
+        <v>0.02094753614510476</v>
       </c>
       <c r="G20">
-        <v>-0.0780579004950108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05422463512363624</v>
+      </c>
+      <c r="H20">
+        <v>0.02799539583365677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001934784162210999</v>
+        <v>-0.01901380864790322</v>
       </c>
       <c r="C21">
-        <v>-0.01451151594305849</v>
+        <v>0.005836697664035726</v>
       </c>
       <c r="D21">
-        <v>-0.01757201287257108</v>
+        <v>-0.01735631621949328</v>
       </c>
       <c r="E21">
-        <v>0.03278209223487936</v>
+        <v>0.02038752487669993</v>
       </c>
       <c r="F21">
-        <v>-0.04259239212780708</v>
+        <v>0.01643457821307249</v>
       </c>
       <c r="G21">
-        <v>-0.01913799534848831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04853105480814064</v>
+      </c>
+      <c r="H21">
+        <v>0.0423453430668538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02750682601209656</v>
+        <v>-0.02251008356590203</v>
       </c>
       <c r="C24">
-        <v>0.02507080923426144</v>
+        <v>-0.006219054525775518</v>
       </c>
       <c r="D24">
-        <v>0.001143370569605368</v>
+        <v>-0.03905215666328208</v>
       </c>
       <c r="E24">
-        <v>0.009760665441802157</v>
+        <v>0.00226298744846037</v>
       </c>
       <c r="F24">
-        <v>-0.04595116513965508</v>
+        <v>0.01302995376019876</v>
       </c>
       <c r="G24">
-        <v>-0.02319800740898894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01979294598662106</v>
+      </c>
+      <c r="H24">
+        <v>0.04750318044062974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02812931222031158</v>
+        <v>-0.03423183042899346</v>
       </c>
       <c r="C25">
-        <v>0.02103903482763887</v>
+        <v>-0.004156636298110186</v>
       </c>
       <c r="D25">
-        <v>-0.0150272405680578</v>
+        <v>-0.03924822244791324</v>
       </c>
       <c r="E25">
-        <v>0.02337751356977543</v>
+        <v>0.005944976771335843</v>
       </c>
       <c r="F25">
-        <v>-0.05563409589439682</v>
+        <v>0.0208721352769984</v>
       </c>
       <c r="G25">
-        <v>-0.01122410873677878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02494975601162419</v>
+      </c>
+      <c r="H25">
+        <v>0.04606035659465923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0203781946131499</v>
+        <v>-0.0182182608024949</v>
       </c>
       <c r="C26">
-        <v>0.01679376466720101</v>
+        <v>0.01809276494927135</v>
       </c>
       <c r="D26">
-        <v>-0.0187752290305101</v>
+        <v>-0.007249879636783518</v>
       </c>
       <c r="E26">
-        <v>-0.002078044027059197</v>
+        <v>0.0003409681917937642</v>
       </c>
       <c r="F26">
-        <v>-0.0636182519940513</v>
+        <v>0.004118443314200046</v>
       </c>
       <c r="G26">
-        <v>-0.0481458006930463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03377439413007521</v>
+      </c>
+      <c r="H26">
+        <v>0.0258813165825539</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05229152074798319</v>
+        <v>-0.02183070761142962</v>
       </c>
       <c r="C27">
-        <v>0.01839780111124795</v>
+        <v>-0.00795088966851794</v>
       </c>
       <c r="D27">
-        <v>0.02709944844448371</v>
+        <v>-0.01155633806992602</v>
       </c>
       <c r="E27">
-        <v>0.03471241866298422</v>
+        <v>0.003436619525087043</v>
       </c>
       <c r="F27">
-        <v>-0.04323892540322116</v>
+        <v>0.01426683890725068</v>
       </c>
       <c r="G27">
-        <v>-0.05438087952557972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.00858405290061396</v>
+      </c>
+      <c r="H27">
+        <v>-0.003781109548961637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06513482821666838</v>
+        <v>-0.1388378504160974</v>
       </c>
       <c r="C28">
-        <v>-0.1146040505763719</v>
+        <v>0.006521496677717675</v>
       </c>
       <c r="D28">
-        <v>0.09445799145148456</v>
+        <v>0.2310796965527666</v>
       </c>
       <c r="E28">
-        <v>-0.1519396582875495</v>
+        <v>0.0020259317713802</v>
       </c>
       <c r="F28">
-        <v>-0.04515899022703438</v>
+        <v>-0.02948749445421379</v>
       </c>
       <c r="G28">
-        <v>0.003585361476565207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02031715717736288</v>
+      </c>
+      <c r="H28">
+        <v>-0.004721647097781233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01937822423682906</v>
+        <v>-0.02379847816359291</v>
       </c>
       <c r="C29">
-        <v>-0.0002182092797656032</v>
+        <v>-0.001541098759417609</v>
       </c>
       <c r="D29">
-        <v>0.00475240793791599</v>
+        <v>-0.009982916168924501</v>
       </c>
       <c r="E29">
-        <v>0.03572854058497715</v>
+        <v>0.01517733349242632</v>
       </c>
       <c r="F29">
-        <v>-0.05801853897908025</v>
+        <v>0.02061585604150586</v>
       </c>
       <c r="G29">
-        <v>-0.04626938079299533</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03928351477825357</v>
+      </c>
+      <c r="H29">
+        <v>0.002745383193765234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07939488235123709</v>
+        <v>-0.06035361878712035</v>
       </c>
       <c r="C30">
-        <v>0.05467788063430478</v>
+        <v>-0.002105563428330399</v>
       </c>
       <c r="D30">
-        <v>0.00966803925836505</v>
+        <v>-0.08403092582233457</v>
       </c>
       <c r="E30">
-        <v>0.05101621337345876</v>
+        <v>-0.02805396880662675</v>
       </c>
       <c r="F30">
-        <v>-0.102033460060796</v>
+        <v>0.05482971972294761</v>
       </c>
       <c r="G30">
-        <v>-0.06821287507707938</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06239312205050206</v>
+      </c>
+      <c r="H30">
+        <v>0.07852384886877214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05889503626362725</v>
+        <v>-0.05235763323621741</v>
       </c>
       <c r="C31">
-        <v>0.0313220009293365</v>
+        <v>-0.01151346956038372</v>
       </c>
       <c r="D31">
-        <v>-0.003083591329602416</v>
+        <v>-0.0183435331354592</v>
       </c>
       <c r="E31">
-        <v>0.008274308553944601</v>
+        <v>-0.00362581425734784</v>
       </c>
       <c r="F31">
-        <v>-0.04821837403752641</v>
+        <v>0.006386017258068179</v>
       </c>
       <c r="G31">
-        <v>-0.05214724854218057</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01727115689382909</v>
+      </c>
+      <c r="H31">
+        <v>0.004977034172414766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01692468365020327</v>
+        <v>-0.01213134570038277</v>
       </c>
       <c r="C32">
-        <v>0.01147719639333795</v>
+        <v>-0.01381490704462187</v>
       </c>
       <c r="D32">
-        <v>-0.006404010796774744</v>
+        <v>-0.008554412869064736</v>
       </c>
       <c r="E32">
-        <v>0.06273274863057349</v>
+        <v>0.03126608632755782</v>
       </c>
       <c r="F32">
-        <v>-0.07314780173269748</v>
+        <v>0.04286798935921682</v>
       </c>
       <c r="G32">
-        <v>-0.0474454043522158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02667606775822916</v>
+      </c>
+      <c r="H32">
+        <v>0.05669799360995281</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04097803559187971</v>
+        <v>-0.0395474534601763</v>
       </c>
       <c r="C33">
-        <v>0.03827314290853551</v>
+        <v>-0.002231061558583443</v>
       </c>
       <c r="D33">
-        <v>-0.03113199806710866</v>
+        <v>-0.03411540335511802</v>
       </c>
       <c r="E33">
-        <v>0.01882929076756862</v>
+        <v>-0.01947934045986355</v>
       </c>
       <c r="F33">
-        <v>-0.08383984572619532</v>
+        <v>0.004536419206179712</v>
       </c>
       <c r="G33">
-        <v>-0.06707194747672705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05146015416146381</v>
+      </c>
+      <c r="H33">
+        <v>0.05124529186816979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02723499952147692</v>
+        <v>-0.03052241980710256</v>
       </c>
       <c r="C34">
-        <v>0.02546142503191189</v>
+        <v>-0.01958636866790799</v>
       </c>
       <c r="D34">
-        <v>-0.007937038950242181</v>
+        <v>-0.03575970668758041</v>
       </c>
       <c r="E34">
-        <v>0.02841822833296138</v>
+        <v>0.01145534588171719</v>
       </c>
       <c r="F34">
-        <v>-0.05503334809025386</v>
+        <v>0.01847276759107376</v>
       </c>
       <c r="G34">
-        <v>-0.01697030548248833</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02028336081882669</v>
+      </c>
+      <c r="H34">
+        <v>0.03876157527579175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01509548169966764</v>
+        <v>-0.01897739382440899</v>
       </c>
       <c r="C36">
-        <v>0.001448844940178952</v>
+        <v>0.005704735432430409</v>
       </c>
       <c r="D36">
-        <v>-0.004167563753548647</v>
+        <v>-0.002192411539852075</v>
       </c>
       <c r="E36">
-        <v>0.02139993957027986</v>
+        <v>0.008470082692416158</v>
       </c>
       <c r="F36">
-        <v>-0.03766937618980087</v>
+        <v>0.005033981712488607</v>
       </c>
       <c r="G36">
-        <v>-0.03585635243454411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02165832419348421</v>
+      </c>
+      <c r="H36">
+        <v>0.0167275712564375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001937832674913842</v>
+        <v>-0.02801880828670907</v>
       </c>
       <c r="C38">
-        <v>-0.005069716342093513</v>
+        <v>-0.01669057484754178</v>
       </c>
       <c r="D38">
-        <v>-0.01633875497108925</v>
+        <v>-0.008743307955788832</v>
       </c>
       <c r="E38">
-        <v>-0.03024196409834096</v>
+        <v>0.0007771130127338415</v>
       </c>
       <c r="F38">
-        <v>-0.03717442148192465</v>
+        <v>0.01222753054452686</v>
       </c>
       <c r="G38">
-        <v>-0.01393349667925558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02572903450964645</v>
+      </c>
+      <c r="H38">
+        <v>0.04487152843703149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02808329738055411</v>
+        <v>-0.02545863902560169</v>
       </c>
       <c r="C39">
-        <v>0.04637391059863721</v>
+        <v>-0.009926478416175888</v>
       </c>
       <c r="D39">
-        <v>-0.00984066200767447</v>
+        <v>-0.08572849121982026</v>
       </c>
       <c r="E39">
-        <v>0.02560632005416641</v>
+        <v>-0.002173783723994568</v>
       </c>
       <c r="F39">
-        <v>-0.06713023366011044</v>
+        <v>0.02430212758045457</v>
       </c>
       <c r="G39">
-        <v>-0.03245726766706954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04187357346616211</v>
+      </c>
+      <c r="H39">
+        <v>0.07652095525528528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03103398054944845</v>
+        <v>-0.03372160498778921</v>
       </c>
       <c r="C40">
-        <v>0.06645087452027312</v>
+        <v>-0.002563924246531887</v>
       </c>
       <c r="D40">
-        <v>0.0248296807022643</v>
+        <v>-0.02735874818250695</v>
       </c>
       <c r="E40">
-        <v>-0.009083134491848673</v>
+        <v>-0.02253952618148255</v>
       </c>
       <c r="F40">
-        <v>-0.08247004971519283</v>
+        <v>0.03781717669638141</v>
       </c>
       <c r="G40">
-        <v>-0.05729365566984968</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02215310741468098</v>
+      </c>
+      <c r="H40">
+        <v>0.06580818929118508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001257872160902669</v>
+        <v>-0.009507935739477955</v>
       </c>
       <c r="C41">
-        <v>-0.001926960479400843</v>
+        <v>0.003215846675374768</v>
       </c>
       <c r="D41">
-        <v>-0.007624561917886407</v>
+        <v>0.01542865427647632</v>
       </c>
       <c r="E41">
-        <v>0.0006002279546516093</v>
+        <v>-0.001127789509119577</v>
       </c>
       <c r="F41">
-        <v>-0.01619610831047039</v>
+        <v>-0.002827246872200201</v>
       </c>
       <c r="G41">
-        <v>-0.04745074462084146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00552697579239667</v>
+      </c>
+      <c r="H41">
+        <v>-0.005145308693112148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3570946058344125</v>
+        <v>-0.1891047680735459</v>
       </c>
       <c r="C42">
-        <v>-0.05114716750049689</v>
+        <v>0.06072714334207444</v>
       </c>
       <c r="D42">
-        <v>-0.770508779885998</v>
+        <v>-0.2464289569660848</v>
       </c>
       <c r="E42">
-        <v>-0.3644587989061714</v>
+        <v>-0.1995261818199018</v>
       </c>
       <c r="F42">
-        <v>0.2892753031485949</v>
+        <v>-0.9121859990927903</v>
       </c>
       <c r="G42">
-        <v>-0.1474544848830222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.09167499870791158</v>
+      </c>
+      <c r="H42">
+        <v>0.007378977223107442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0004342137038961627</v>
+        <v>-0.013788122816474</v>
       </c>
       <c r="C43">
-        <v>-0.002514947452575211</v>
+        <v>0.003130990190582468</v>
       </c>
       <c r="D43">
-        <v>-0.01017974478423422</v>
+        <v>0.01563675020523189</v>
       </c>
       <c r="E43">
-        <v>0.0003720180763345716</v>
+        <v>-0.004269210054603567</v>
       </c>
       <c r="F43">
-        <v>-0.03179034753849194</v>
+        <v>-0.004858541409451898</v>
       </c>
       <c r="G43">
-        <v>-0.04552921948982351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00724149327882534</v>
+      </c>
+      <c r="H43">
+        <v>0.008618705198447291</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01501408326840582</v>
+        <v>-0.02281361333274871</v>
       </c>
       <c r="C44">
-        <v>0.001548794698753603</v>
+        <v>-0.006010875374355987</v>
       </c>
       <c r="D44">
-        <v>-0.01087521099036173</v>
+        <v>-0.02989027929404557</v>
       </c>
       <c r="E44">
-        <v>-0.007350535034779224</v>
+        <v>0.008339515885906893</v>
       </c>
       <c r="F44">
-        <v>-0.1078150114929787</v>
+        <v>0.006338223751746386</v>
       </c>
       <c r="G44">
-        <v>-0.08563422212314918</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04697487729223886</v>
+      </c>
+      <c r="H44">
+        <v>0.06719819174082296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02053899858225229</v>
+        <v>-0.01737791559887204</v>
       </c>
       <c r="C46">
-        <v>0.01976462317354412</v>
+        <v>0.004226951185314918</v>
       </c>
       <c r="D46">
-        <v>-0.01392742415408972</v>
+        <v>-0.01176920954662997</v>
       </c>
       <c r="E46">
-        <v>0.03290881744163938</v>
+        <v>0.0006630609469140351</v>
       </c>
       <c r="F46">
-        <v>-0.07189316660340229</v>
+        <v>0.01580002677628438</v>
       </c>
       <c r="G46">
-        <v>-0.06011458849643159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04577155751587514</v>
+      </c>
+      <c r="H46">
+        <v>0.007196171247911196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09245149778929096</v>
+        <v>-0.07685301518107976</v>
       </c>
       <c r="C47">
-        <v>0.03360061465877642</v>
+        <v>-0.02864022239605807</v>
       </c>
       <c r="D47">
-        <v>0.007259450529978085</v>
+        <v>-0.04055176016958971</v>
       </c>
       <c r="E47">
-        <v>0.02758683452341743</v>
+        <v>0.0005318660699341365</v>
       </c>
       <c r="F47">
-        <v>-0.03167510217046969</v>
+        <v>0.01415308779162011</v>
       </c>
       <c r="G47">
-        <v>-0.08029141164772047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01029295692957788</v>
+      </c>
+      <c r="H47">
+        <v>-0.02115690933682248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01764998293501304</v>
+        <v>-0.02198064145348587</v>
       </c>
       <c r="C48">
-        <v>0.01004928668610366</v>
+        <v>-0.005597283818134818</v>
       </c>
       <c r="D48">
-        <v>-0.008276711495125506</v>
+        <v>-0.007748775372365725</v>
       </c>
       <c r="E48">
-        <v>0.02093860214516343</v>
+        <v>0.0008070871799602416</v>
       </c>
       <c r="F48">
-        <v>-0.04373146730575604</v>
+        <v>0.009832725249348917</v>
       </c>
       <c r="G48">
-        <v>-0.02869829117331633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02521366260282865</v>
+      </c>
+      <c r="H48">
+        <v>0.01988333412480695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08487189164172147</v>
+        <v>-0.07406117417346436</v>
       </c>
       <c r="C50">
-        <v>0.03242222935235035</v>
+        <v>-0.02567993669340892</v>
       </c>
       <c r="D50">
-        <v>-0.01060944642530495</v>
+        <v>-0.0398627765504823</v>
       </c>
       <c r="E50">
-        <v>0.03060380928055615</v>
+        <v>0.01503193205432137</v>
       </c>
       <c r="F50">
-        <v>-0.04996287178256312</v>
+        <v>0.01022688341698841</v>
       </c>
       <c r="G50">
-        <v>-0.04085765095934487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008050902267107325</v>
+      </c>
+      <c r="H50">
+        <v>-0.004081495863893831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01548457502147648</v>
+        <v>-0.02240371267501729</v>
       </c>
       <c r="C51">
-        <v>-0.008762302712444679</v>
+        <v>0.0003854027219556438</v>
       </c>
       <c r="D51">
-        <v>0.004355770798297612</v>
+        <v>-0.002471649521736048</v>
       </c>
       <c r="E51">
-        <v>-0.01764394327619373</v>
+        <v>0.006169153919747286</v>
       </c>
       <c r="F51">
-        <v>-0.09071159101004148</v>
+        <v>0.006719911583016887</v>
       </c>
       <c r="G51">
-        <v>-0.06013018918451663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04505475432313356</v>
+      </c>
+      <c r="H51">
+        <v>0.04848297145929565</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1018238218902398</v>
+        <v>-0.09651786596618453</v>
       </c>
       <c r="C53">
-        <v>0.04498383375164344</v>
+        <v>-0.03735719812189379</v>
       </c>
       <c r="D53">
-        <v>0.008495218680961746</v>
+        <v>-0.07366931329830405</v>
       </c>
       <c r="E53">
-        <v>0.04801852671942755</v>
+        <v>0.002870417291282099</v>
       </c>
       <c r="F53">
-        <v>0.02524361132413395</v>
+        <v>0.02895674652371696</v>
       </c>
       <c r="G53">
-        <v>-0.01678927970032439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04461226457035238</v>
+      </c>
+      <c r="H53">
+        <v>-0.03208702037366418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02069410991432759</v>
+        <v>-0.02557853689569763</v>
       </c>
       <c r="C54">
-        <v>-0.0004957816951020306</v>
+        <v>-0.008521327644516189</v>
       </c>
       <c r="D54">
-        <v>0.00551989786798146</v>
+        <v>0.01064021174766927</v>
       </c>
       <c r="E54">
-        <v>0.03803137114322024</v>
+        <v>0.009405446434210816</v>
       </c>
       <c r="F54">
-        <v>-0.05368958206892137</v>
+        <v>0.01280506542651946</v>
       </c>
       <c r="G54">
-        <v>-0.05925737049739513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03982618263577226</v>
+      </c>
+      <c r="H54">
+        <v>-0.000569141334965388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003980742523858</v>
+        <v>-0.08044815518769775</v>
       </c>
       <c r="C55">
-        <v>0.02575320967589247</v>
+        <v>-0.03310774641828113</v>
       </c>
       <c r="D55">
-        <v>-0.0007874759989975802</v>
+        <v>-0.06998254998197916</v>
       </c>
       <c r="E55">
-        <v>0.06544144406060465</v>
+        <v>0.01181873916817056</v>
       </c>
       <c r="F55">
-        <v>0.01637263266141017</v>
+        <v>0.02104963670354073</v>
       </c>
       <c r="G55">
-        <v>-0.05677319541229428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01995693934085981</v>
+      </c>
+      <c r="H55">
+        <v>-0.04189597657834618</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1429814189713781</v>
+        <v>-0.1314627222582094</v>
       </c>
       <c r="C56">
-        <v>0.06180484271286159</v>
+        <v>-0.05543644555093064</v>
       </c>
       <c r="D56">
-        <v>0.04367635684581308</v>
+        <v>-0.08896738473805661</v>
       </c>
       <c r="E56">
-        <v>0.07597147990684602</v>
+        <v>0.00105703087002895</v>
       </c>
       <c r="F56">
-        <v>0.05908811696579693</v>
+        <v>0.04971308848899354</v>
       </c>
       <c r="G56">
-        <v>0.03204247163020996</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08101178654405694</v>
+      </c>
+      <c r="H56">
+        <v>-0.05325815940055087</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04313004154507635</v>
+        <v>-0.03892504906699764</v>
       </c>
       <c r="C57">
-        <v>0.01664767348460792</v>
+        <v>0.01110318569291694</v>
       </c>
       <c r="D57">
-        <v>-0.01731801526875475</v>
+        <v>-0.03076834554553873</v>
       </c>
       <c r="E57">
-        <v>-0.01452086976842445</v>
+        <v>-0.006125321611730263</v>
       </c>
       <c r="F57">
-        <v>-0.0549800719329629</v>
+        <v>0.01198804737131967</v>
       </c>
       <c r="G57">
-        <v>-0.05684309376566649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07816265078286432</v>
+      </c>
+      <c r="H57">
+        <v>0.04859433062004022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2045627944858313</v>
+        <v>-0.1581118173443825</v>
       </c>
       <c r="C58">
-        <v>0.1361989948657344</v>
+        <v>-0.05129817616587575</v>
       </c>
       <c r="D58">
-        <v>-0.067985381995774</v>
+        <v>-0.1453971289227972</v>
       </c>
       <c r="E58">
-        <v>0.06767369877237168</v>
+        <v>-0.171935416466419</v>
       </c>
       <c r="F58">
-        <v>-0.4126622379595409</v>
+        <v>0.01116636400513431</v>
       </c>
       <c r="G58">
-        <v>-0.06421252670240452</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.806520320100923</v>
+      </c>
+      <c r="H58">
+        <v>-0.4179104827067523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05816392660994278</v>
+        <v>-0.1518092804313675</v>
       </c>
       <c r="C59">
-        <v>-0.06487523626613399</v>
+        <v>-0.002249185546075459</v>
       </c>
       <c r="D59">
-        <v>0.1079780315373826</v>
+        <v>0.231755777671392</v>
       </c>
       <c r="E59">
-        <v>-0.145533324175875</v>
+        <v>-0.01702759329187682</v>
       </c>
       <c r="F59">
-        <v>-0.06260953956736481</v>
+        <v>-0.004567952149670056</v>
       </c>
       <c r="G59">
-        <v>0.02328410019517996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02305022033233849</v>
+      </c>
+      <c r="H59">
+        <v>0.03199961208914649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1515288487190156</v>
+        <v>-0.1860054449396269</v>
       </c>
       <c r="C60">
-        <v>0.09503920768234164</v>
+        <v>-0.02918082530436595</v>
       </c>
       <c r="D60">
-        <v>-0.008370424565682679</v>
+        <v>-0.02170004704671763</v>
       </c>
       <c r="E60">
-        <v>-0.1064446818699468</v>
+        <v>-0.04730525861570933</v>
       </c>
       <c r="F60">
-        <v>-0.1767684321669435</v>
+        <v>0.05621402070178256</v>
       </c>
       <c r="G60">
-        <v>0.2932281660196431</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.03345242174116307</v>
+      </c>
+      <c r="H60">
+        <v>0.3646677872854059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01983897497436393</v>
+        <v>-0.02789282174553334</v>
       </c>
       <c r="C61">
-        <v>0.02511493814233619</v>
+        <v>-0.01191820437226954</v>
       </c>
       <c r="D61">
-        <v>-0.01075500869769453</v>
+        <v>-0.05195770671827311</v>
       </c>
       <c r="E61">
-        <v>0.01672112792804695</v>
+        <v>0.004977281897470352</v>
       </c>
       <c r="F61">
-        <v>-0.03074906737701798</v>
+        <v>0.02468811000021669</v>
       </c>
       <c r="G61">
-        <v>-0.01653084100825274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02245956637202109</v>
+      </c>
+      <c r="H61">
+        <v>0.05719274162297611</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009166816805654373</v>
+        <v>-0.01457946598290747</v>
       </c>
       <c r="C63">
-        <v>0.01652889962400937</v>
+        <v>0.001030683281143103</v>
       </c>
       <c r="D63">
-        <v>-0.01714176438050673</v>
+        <v>-0.01958189820532278</v>
       </c>
       <c r="E63">
-        <v>0.02339065630867779</v>
+        <v>0.005795657828852351</v>
       </c>
       <c r="F63">
-        <v>-0.01535543540322947</v>
+        <v>0.01294480637906211</v>
       </c>
       <c r="G63">
-        <v>-0.0723676054736369</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01769788131989497</v>
+      </c>
+      <c r="H63">
+        <v>0.01357997486915434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0357767502949085</v>
+        <v>-0.04382106925310836</v>
       </c>
       <c r="C64">
-        <v>-0.0008527977304749433</v>
+        <v>-0.01115145882723273</v>
       </c>
       <c r="D64">
-        <v>0.001560817668868956</v>
+        <v>-0.03406694547531524</v>
       </c>
       <c r="E64">
-        <v>0.05163064343708119</v>
+        <v>0.01232707718913879</v>
       </c>
       <c r="F64">
-        <v>-0.03873697420419474</v>
+        <v>0.006265752093773609</v>
       </c>
       <c r="G64">
-        <v>-0.05518463635209071</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.005315223172406906</v>
+      </c>
+      <c r="H64">
+        <v>0.04122122964714773</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0314595319757903</v>
+        <v>-0.04000298112234909</v>
       </c>
       <c r="C65">
-        <v>0.01379893831325634</v>
+        <v>-0.00262984800147521</v>
       </c>
       <c r="D65">
-        <v>-0.003142716953184831</v>
+        <v>-0.06657464827032056</v>
       </c>
       <c r="E65">
-        <v>0.022501819621632</v>
+        <v>0.00891695694021085</v>
       </c>
       <c r="F65">
-        <v>-0.0108628188925532</v>
+        <v>0.03716873885516231</v>
       </c>
       <c r="G65">
-        <v>0.01385549727419404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001290985928189495</v>
+      </c>
+      <c r="H65">
+        <v>0.07198128957414306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03031270855066758</v>
+        <v>-0.03614317291815151</v>
       </c>
       <c r="C66">
-        <v>0.05895886370585493</v>
+        <v>-0.01740437770572647</v>
       </c>
       <c r="D66">
-        <v>-0.01055582132710541</v>
+        <v>-0.1050616741192088</v>
       </c>
       <c r="E66">
-        <v>0.03585638264697003</v>
+        <v>-0.004250958389822091</v>
       </c>
       <c r="F66">
-        <v>-0.05247991385109573</v>
+        <v>0.04451380376442254</v>
       </c>
       <c r="G66">
-        <v>-0.01436397323882454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03611978833872027</v>
+      </c>
+      <c r="H66">
+        <v>0.08300803972979423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01171591413354489</v>
+        <v>-0.04732055917620669</v>
       </c>
       <c r="C67">
-        <v>0.001984514507761935</v>
+        <v>-0.01856948883363322</v>
       </c>
       <c r="D67">
-        <v>-0.009074230478459738</v>
+        <v>-0.008874432882662004</v>
       </c>
       <c r="E67">
-        <v>-0.03414150921789329</v>
+        <v>-0.002864168793169676</v>
       </c>
       <c r="F67">
-        <v>-0.01885153470265473</v>
+        <v>0.02025794528012109</v>
       </c>
       <c r="G67">
-        <v>-0.002436196795961466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01319155878498851</v>
+      </c>
+      <c r="H67">
+        <v>0.04562400455745161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0764791277987759</v>
+        <v>-0.1433715807133623</v>
       </c>
       <c r="C68">
-        <v>-0.09146302586777365</v>
+        <v>0.0214939585810635</v>
       </c>
       <c r="D68">
-        <v>0.1173093280539177</v>
+        <v>0.2418720349483061</v>
       </c>
       <c r="E68">
-        <v>-0.143799766367796</v>
+        <v>-0.01200684015627302</v>
       </c>
       <c r="F68">
-        <v>-0.05781798675305035</v>
+        <v>-0.03808211483711581</v>
       </c>
       <c r="G68">
-        <v>0.06678613360085386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03061769198639442</v>
+      </c>
+      <c r="H68">
+        <v>-0.04513801217251798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06799926621022531</v>
+        <v>-0.06373625211345413</v>
       </c>
       <c r="C69">
-        <v>0.04103784955761576</v>
+        <v>-0.02918557953137424</v>
       </c>
       <c r="D69">
-        <v>0.01550997999802383</v>
+        <v>-0.03942943253594024</v>
       </c>
       <c r="E69">
-        <v>0.01799414807283442</v>
+        <v>6.288176654891889e-05</v>
       </c>
       <c r="F69">
-        <v>-0.01649451045749271</v>
+        <v>0.02548526349039543</v>
       </c>
       <c r="G69">
-        <v>-0.07874606813087616</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01559696885785157</v>
+      </c>
+      <c r="H69">
+        <v>0.007445868637464911</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07807825073606807</v>
+        <v>-0.1390633335671298</v>
       </c>
       <c r="C71">
-        <v>-0.09557603117364834</v>
+        <v>0.008493035570591079</v>
       </c>
       <c r="D71">
-        <v>0.1053142180197969</v>
+        <v>0.2093517968505482</v>
       </c>
       <c r="E71">
-        <v>-0.2040534525892224</v>
+        <v>-0.01745086274597872</v>
       </c>
       <c r="F71">
-        <v>-0.04681702515585166</v>
+        <v>-0.04438341823033757</v>
       </c>
       <c r="G71">
-        <v>-0.002430567423697468</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03495163703069257</v>
+      </c>
+      <c r="H71">
+        <v>-0.02041183221242181</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.103380309523034</v>
+        <v>-0.08202597447943198</v>
       </c>
       <c r="C72">
-        <v>0.07250864369475102</v>
+        <v>-0.03999750146750057</v>
       </c>
       <c r="D72">
-        <v>0.04292033641704684</v>
+        <v>-0.0698917027540466</v>
       </c>
       <c r="E72">
-        <v>0.03616959627398272</v>
+        <v>-0.01250659799681966</v>
       </c>
       <c r="F72">
-        <v>-0.09669103816233016</v>
+        <v>0.07604470643725818</v>
       </c>
       <c r="G72">
-        <v>0.08380667052760381</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02345311335617599</v>
+      </c>
+      <c r="H72">
+        <v>0.130425024838565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2208504048062555</v>
+        <v>-0.2570770887478896</v>
       </c>
       <c r="C73">
-        <v>0.1362885119069977</v>
+        <v>-0.04421714308643051</v>
       </c>
       <c r="D73">
-        <v>-0.01995312309747144</v>
+        <v>-0.0809034198437896</v>
       </c>
       <c r="E73">
-        <v>-0.1894722063498245</v>
+        <v>-0.08500102282660298</v>
       </c>
       <c r="F73">
-        <v>-0.2125670543607872</v>
+        <v>0.06713466871950502</v>
       </c>
       <c r="G73">
-        <v>0.4211898700111652</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.04261420184365804</v>
+      </c>
+      <c r="H73">
+        <v>0.4770329054155655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1350409323149942</v>
+        <v>-0.1255951538300468</v>
       </c>
       <c r="C74">
-        <v>0.03688143875467998</v>
+        <v>-0.05411372959735728</v>
       </c>
       <c r="D74">
-        <v>0.01422998885557628</v>
+        <v>-0.09601208109089206</v>
       </c>
       <c r="E74">
-        <v>0.0458980884149111</v>
+        <v>0.004506482714979183</v>
       </c>
       <c r="F74">
-        <v>0.07556280054690165</v>
+        <v>0.03305620636281582</v>
       </c>
       <c r="G74">
-        <v>0.01110043562791949</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06486397780773279</v>
+      </c>
+      <c r="H74">
+        <v>-0.02203805608728217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.226574474944769</v>
+        <v>-0.2368601003826342</v>
       </c>
       <c r="C75">
-        <v>0.09657200589635141</v>
+        <v>-0.1003567082392947</v>
       </c>
       <c r="D75">
-        <v>0.09202416241572126</v>
+        <v>-0.144633463571046</v>
       </c>
       <c r="E75">
-        <v>0.1083385149031744</v>
+        <v>-0.01270020672299213</v>
       </c>
       <c r="F75">
-        <v>0.07939158537065254</v>
+        <v>0.09410097387295471</v>
       </c>
       <c r="G75">
-        <v>0.002879489841059227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1386981596925737</v>
+      </c>
+      <c r="H75">
+        <v>-0.124837750650675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2755833195322379</v>
+        <v>-0.2080057569158344</v>
       </c>
       <c r="C76">
-        <v>0.09057881489020587</v>
+        <v>-0.09351378452501433</v>
       </c>
       <c r="D76">
-        <v>0.1223193292779003</v>
+        <v>-0.138945113235594</v>
       </c>
       <c r="E76">
-        <v>0.1583539420746565</v>
+        <v>0.03235219120305969</v>
       </c>
       <c r="F76">
-        <v>0.1587776624985034</v>
+        <v>0.08902889315355546</v>
       </c>
       <c r="G76">
-        <v>0.01067005358670407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1411761687137467</v>
+      </c>
+      <c r="H76">
+        <v>-0.1247488424346095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.119965725241909</v>
+        <v>-0.07748571553187578</v>
       </c>
       <c r="C77">
-        <v>0.05273691157109806</v>
+        <v>-0.01433930139735547</v>
       </c>
       <c r="D77">
-        <v>-0.07246997046389726</v>
+        <v>-0.06783648658444956</v>
       </c>
       <c r="E77">
-        <v>0.03053470159166321</v>
+        <v>-0.00780228237850642</v>
       </c>
       <c r="F77">
-        <v>-0.1781881364415912</v>
+        <v>-0.004305417022838318</v>
       </c>
       <c r="G77">
-        <v>-0.2186758762773003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08979255153152117</v>
+      </c>
+      <c r="H77">
+        <v>0.0118277968917806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07123497149935094</v>
+        <v>-0.04698036313474479</v>
       </c>
       <c r="C78">
-        <v>0.04760603601140766</v>
+        <v>-0.01515391735347356</v>
       </c>
       <c r="D78">
-        <v>-0.03457991160431619</v>
+        <v>-0.05843172833609334</v>
       </c>
       <c r="E78">
-        <v>0.06785821116144468</v>
+        <v>0.006045421266589831</v>
       </c>
       <c r="F78">
-        <v>-0.1065487411590464</v>
+        <v>0.02856718902149346</v>
       </c>
       <c r="G78">
-        <v>-0.04195106988972824</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06651728399427569</v>
+      </c>
+      <c r="H78">
+        <v>0.0786300194304026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2521695817621205</v>
+        <v>-0.1436345040429687</v>
       </c>
       <c r="C80">
-        <v>-0.8271809048918179</v>
+        <v>-0.03370410063574401</v>
       </c>
       <c r="D80">
-        <v>-0.1094704837512739</v>
+        <v>-0.05091894573074526</v>
       </c>
       <c r="E80">
-        <v>0.4209333412152501</v>
+        <v>0.9471682443892169</v>
       </c>
       <c r="F80">
-        <v>-0.1095395641425257</v>
+        <v>-0.186687403506525</v>
       </c>
       <c r="G80">
-        <v>0.1367555080975535</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1305347403940124</v>
+      </c>
+      <c r="H80">
+        <v>-0.006727197632156789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1743297982724619</v>
+        <v>-0.1605570217212389</v>
       </c>
       <c r="C81">
-        <v>0.06470827829463793</v>
+        <v>-0.0662739376599441</v>
       </c>
       <c r="D81">
-        <v>0.0850222160123216</v>
+        <v>-0.09185261413056393</v>
       </c>
       <c r="E81">
-        <v>0.093086058818822</v>
+        <v>0.007517423381584411</v>
       </c>
       <c r="F81">
-        <v>0.1043730975592401</v>
+        <v>0.06351553858187488</v>
       </c>
       <c r="G81">
-        <v>0.03829428592370734</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09660980117855801</v>
+      </c>
+      <c r="H81">
+        <v>-0.08248931196986795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03517991403412678</v>
+        <v>-0.03491651423677367</v>
       </c>
       <c r="C83">
-        <v>0.03204146997578564</v>
+        <v>-0.00653828465952631</v>
       </c>
       <c r="D83">
-        <v>-0.02194675825107702</v>
+        <v>-0.02202312072049247</v>
       </c>
       <c r="E83">
-        <v>-0.001543685672277302</v>
+        <v>-0.005502215343671418</v>
       </c>
       <c r="F83">
-        <v>-0.05982547059188708</v>
+        <v>0.01196395945790845</v>
       </c>
       <c r="G83">
-        <v>-0.0423883953433584</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05218277583547896</v>
+      </c>
+      <c r="H83">
+        <v>0.04178945184697258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.254563528891487</v>
+        <v>-0.2261174197414558</v>
       </c>
       <c r="C85">
-        <v>0.09504986900670959</v>
+        <v>-0.08549016039404676</v>
       </c>
       <c r="D85">
-        <v>0.09412802510830871</v>
+        <v>-0.1518963276783035</v>
       </c>
       <c r="E85">
-        <v>0.1235890490901003</v>
+        <v>-0.005334673909542272</v>
       </c>
       <c r="F85">
-        <v>0.1028826227344997</v>
+        <v>0.07819993508466767</v>
       </c>
       <c r="G85">
-        <v>-0.02529742005326737</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1499145598441115</v>
+      </c>
+      <c r="H85">
+        <v>-0.08872725979255236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0007322456791880786</v>
+        <v>-0.0295170703278625</v>
       </c>
       <c r="C86">
-        <v>-0.003157365231029519</v>
+        <v>-0.003912553608972765</v>
       </c>
       <c r="D86">
-        <v>-0.02669396476375009</v>
+        <v>-0.02765395797094013</v>
       </c>
       <c r="E86">
-        <v>0.0245167700531835</v>
+        <v>-0.002638780350740296</v>
       </c>
       <c r="F86">
-        <v>-0.07258893732671408</v>
+        <v>0.001097549785385241</v>
       </c>
       <c r="G86">
-        <v>-0.04497577260823395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08271716996587242</v>
+      </c>
+      <c r="H86">
+        <v>0.09374582921040854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03906008377229163</v>
+        <v>-0.03008878443426711</v>
       </c>
       <c r="C87">
-        <v>-0.0009845310759602575</v>
+        <v>-0.005015719912067853</v>
       </c>
       <c r="D87">
-        <v>-0.02184743006992585</v>
+        <v>-0.04269756565347439</v>
       </c>
       <c r="E87">
-        <v>0.008637665403248498</v>
+        <v>0.009888550078987157</v>
       </c>
       <c r="F87">
-        <v>-0.1124717083711244</v>
+        <v>0.01370600492420845</v>
       </c>
       <c r="G87">
-        <v>-0.05065846438837333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08502551035494983</v>
+      </c>
+      <c r="H87">
+        <v>0.07862816974679816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01254831414313092</v>
+        <v>-0.0404630215025512</v>
       </c>
       <c r="C88">
-        <v>-0.015861922811056</v>
+        <v>0.01023849405962568</v>
       </c>
       <c r="D88">
-        <v>0.0134684941819668</v>
+        <v>-0.01724778736074721</v>
       </c>
       <c r="E88">
-        <v>0.01706199973569868</v>
+        <v>0.01112798641758101</v>
       </c>
       <c r="F88">
-        <v>0.002584221670146514</v>
+        <v>0.0165249911780519</v>
       </c>
       <c r="G88">
-        <v>-0.04978354473500227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005617375670401605</v>
+      </c>
+      <c r="H88">
+        <v>0.01647797884396706</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.116070606506323</v>
+        <v>-0.2368085767241318</v>
       </c>
       <c r="C89">
-        <v>-0.1309581708902005</v>
+        <v>0.01743925381998707</v>
       </c>
       <c r="D89">
-        <v>0.1790029181592147</v>
+        <v>0.3651519118312978</v>
       </c>
       <c r="E89">
-        <v>-0.2470386380518456</v>
+        <v>-0.02479076935859651</v>
       </c>
       <c r="F89">
-        <v>-0.08677061564601732</v>
+        <v>-0.02671128684494795</v>
       </c>
       <c r="G89">
-        <v>0.02258569396913045</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0008507148595119405</v>
+      </c>
+      <c r="H89">
+        <v>0.01475028445938645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09718160763457269</v>
+        <v>-0.1882115096484446</v>
       </c>
       <c r="C90">
-        <v>-0.1801299572578025</v>
+        <v>0.01704266331248924</v>
       </c>
       <c r="D90">
-        <v>0.1863098703396223</v>
+        <v>0.3243910485121791</v>
       </c>
       <c r="E90">
-        <v>-0.2602824515709538</v>
+        <v>-0.01774293215302546</v>
       </c>
       <c r="F90">
-        <v>-0.03172350448937779</v>
+        <v>-0.05584143083919041</v>
       </c>
       <c r="G90">
-        <v>-0.01040497236864283</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.00886958863972292</v>
+      </c>
+      <c r="H90">
+        <v>-0.04697148404262009</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3064310005000372</v>
+        <v>-0.2396818698852304</v>
       </c>
       <c r="C91">
-        <v>0.1232715556530204</v>
+        <v>-0.09775216478566677</v>
       </c>
       <c r="D91">
-        <v>0.09600098783398787</v>
+        <v>-0.1298891800339129</v>
       </c>
       <c r="E91">
-        <v>0.1216550688141425</v>
+        <v>-0.0129112390595735</v>
       </c>
       <c r="F91">
-        <v>0.2164778458520092</v>
+        <v>0.07676985613118006</v>
       </c>
       <c r="G91">
-        <v>0.03946099519662803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1664332298411887</v>
+      </c>
+      <c r="H91">
+        <v>-0.1632828287290312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1764061648293826</v>
+        <v>-0.2420387095631557</v>
       </c>
       <c r="C92">
-        <v>-0.1414095336303988</v>
+        <v>-0.05039594984771655</v>
       </c>
       <c r="D92">
-        <v>0.3363711659699755</v>
+        <v>0.2633998404680361</v>
       </c>
       <c r="E92">
-        <v>-0.2412452903134132</v>
+        <v>-0.00346958358189195</v>
       </c>
       <c r="F92">
-        <v>0.1791212019782354</v>
+        <v>0.002820011045274584</v>
       </c>
       <c r="G92">
-        <v>-0.5217479631523541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.001186678872123641</v>
+      </c>
+      <c r="H92">
+        <v>-0.1164969271380155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09847016234263842</v>
+        <v>-0.2131009060079529</v>
       </c>
       <c r="C93">
-        <v>-0.170366602836007</v>
+        <v>0.008199274648476029</v>
       </c>
       <c r="D93">
-        <v>0.2217292630979134</v>
+        <v>0.3416513278582902</v>
       </c>
       <c r="E93">
-        <v>-0.3656220707262711</v>
+        <v>-0.0389850709478398</v>
       </c>
       <c r="F93">
-        <v>0.009814444984771867</v>
+        <v>-0.05915815007503372</v>
       </c>
       <c r="G93">
-        <v>0.06963695884878383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0007290364315553379</v>
+      </c>
+      <c r="H93">
+        <v>0.01401356723367949</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.302881301862385</v>
+        <v>-0.2766536861686716</v>
       </c>
       <c r="C94">
-        <v>0.1491211135042112</v>
+        <v>-0.09129335051344556</v>
       </c>
       <c r="D94">
-        <v>0.1889036999794857</v>
+        <v>-0.130375608002875</v>
       </c>
       <c r="E94">
-        <v>0.1447854708034121</v>
+        <v>-0.04496272452335707</v>
       </c>
       <c r="F94">
-        <v>0.1705937573514673</v>
+        <v>0.1538165981349974</v>
       </c>
       <c r="G94">
-        <v>0.0470857684029549</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2346068208389468</v>
+      </c>
+      <c r="H94">
+        <v>-0.2932958374614391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0515417240409487</v>
+        <v>-0.0594805801493683</v>
       </c>
       <c r="C95">
-        <v>0.05200645065584807</v>
+        <v>-0.03482359447981716</v>
       </c>
       <c r="D95">
-        <v>-0.04531413673705941</v>
+        <v>-0.08333381492199438</v>
       </c>
       <c r="E95">
-        <v>0.06017542251802391</v>
+        <v>-0.07652643693247137</v>
       </c>
       <c r="F95">
-        <v>-0.05873322631943588</v>
+        <v>0.0005995295640468942</v>
       </c>
       <c r="G95">
-        <v>-0.2052194923904732</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06078185209901687</v>
+      </c>
+      <c r="H95">
+        <v>0.05055756609484899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1682802646374942</v>
+        <v>-0.1845687522311518</v>
       </c>
       <c r="C98">
-        <v>0.06453359732591193</v>
+        <v>-0.05865894628338687</v>
       </c>
       <c r="D98">
-        <v>-0.03581231067874491</v>
+        <v>-0.03219018036100246</v>
       </c>
       <c r="E98">
-        <v>-0.1360211299825874</v>
+        <v>-0.04811001821967425</v>
       </c>
       <c r="F98">
-        <v>-0.1251319344580838</v>
+        <v>0.01668143500776927</v>
       </c>
       <c r="G98">
-        <v>0.3391152787089934</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07762606035489422</v>
+      </c>
+      <c r="H98">
+        <v>0.3407750279819822</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.004758283304628609</v>
+        <v>-0.01769716901611616</v>
       </c>
       <c r="C101">
-        <v>0.01403953411414228</v>
+        <v>-0.0004422521320228828</v>
       </c>
       <c r="D101">
-        <v>-0.01029709946268428</v>
+        <v>-0.01244990617811649</v>
       </c>
       <c r="E101">
-        <v>0.06479797021355604</v>
+        <v>0.007282294228450495</v>
       </c>
       <c r="F101">
-        <v>-0.169743144128142</v>
+        <v>0.02755225913879036</v>
       </c>
       <c r="G101">
-        <v>-0.1193514664953082</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1045190904019348</v>
+      </c>
+      <c r="H101">
+        <v>-0.02618531087846233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1176111866580657</v>
+        <v>-0.1089844666002373</v>
       </c>
       <c r="C102">
-        <v>0.05412433387818803</v>
+        <v>-0.0340951393488211</v>
       </c>
       <c r="D102">
-        <v>0.03307434402188698</v>
+        <v>-0.07449382046821744</v>
       </c>
       <c r="E102">
-        <v>0.07867597487930425</v>
+        <v>-0.0005881396492359458</v>
       </c>
       <c r="F102">
-        <v>0.08114553292279765</v>
+        <v>0.04180389476495621</v>
       </c>
       <c r="G102">
-        <v>0.005744271144890943</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08265532221579673</v>
+      </c>
+      <c r="H102">
+        <v>-0.06147957982758937</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0344460053762774</v>
+        <v>-0.01639279335973295</v>
       </c>
       <c r="C103">
-        <v>-0.001083004193498939</v>
+        <v>-0.006172010588615745</v>
       </c>
       <c r="D103">
-        <v>0.01068434352461774</v>
+        <v>-0.01424255257728819</v>
       </c>
       <c r="E103">
-        <v>0.04106908592421652</v>
+        <v>0.009274461982173354</v>
       </c>
       <c r="F103">
-        <v>-0.00507668846832254</v>
+        <v>0.007555223127073438</v>
       </c>
       <c r="G103">
-        <v>-0.009986278592838635</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0005951387639481982</v>
+      </c>
+      <c r="H103">
+        <v>-0.01138125829309647</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2018571069358158</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.956397803087088</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1219062067089057</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02492146981404747</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1307221277321495</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03042343580385824</v>
+      </c>
+      <c r="H104">
+        <v>-0.04810631823863205</v>
       </c>
     </row>
   </sheetData>
